--- a/blarg.xlsx
+++ b/blarg.xlsx
@@ -141,14 +141,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,8 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,103 +588,103 @@
       <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1" t="n">
         <v>4893.58437618505</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="1" t="n">
         <v>4786.88674987817</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="1" t="n">
         <v>4636.60260490835</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="1" t="n">
         <v>4558.4493201155</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="1" t="n">
         <v>4538.21242121223</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="1" t="n">
         <v>4587.57524716114</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="1" t="n">
         <v>4677.22914374941</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="1" t="n">
         <v>4605.65075748936</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="1" t="n">
         <v>4565.95875964272</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="1" t="n">
         <v>4487.9851510129</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="1" t="n">
         <v>4477.24609105986</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="1" t="n">
         <v>4524.4527023158</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="1" t="n">
         <v>4509.1989264893</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="1" t="n">
         <v>4591.93915258933</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="1" t="n">
         <v>4592.51948967317</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="1" t="n">
         <v>4566.49615991888</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="1" t="n">
         <v>4561.23346628235</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="1" t="n">
         <v>4527.73338246574</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="1" t="n">
         <v>4431.3035713446</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="1" t="n">
         <v>4116.50688792224</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="1" t="n">
         <v>4203.91796604085</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="1" t="n">
         <v>4092.89647328317</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="1" t="n">
         <v>4019.75475684303</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="1" t="n">
         <v>3931.42371493108</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>3790.20716902335</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>3835.96330399261</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="1" t="n">
         <v>3838.5406647433</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="1" t="n">
         <v>3863.56184876514</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="1" t="n">
         <v>3774.5339586885</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="1" t="n">
         <v>3615.14192037941</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="1" t="n">
         <v>3327.29411423609</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="1" t="n">
         <v>3496.39319447029</v>
       </c>
     </row>
@@ -687,103 +695,103 @@
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>3238.05152332193</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1" t="n">
         <v>3077.93733469227</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="1" t="n">
         <v>2595.62278871759</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="1" t="n">
         <v>2454.96016772792</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="1" t="n">
         <v>2188.73566501177</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="1" t="n">
         <v>2134.34276918501</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="1" t="n">
         <v>2086.95267778645</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="1" t="n">
         <v>1963.11837222978</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="1" t="n">
         <v>1941.88483948929</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="1" t="n">
         <v>1962.07187680608</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="1" t="n">
         <v>1959.69182403341</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="1" t="n">
         <v>1992.35484822621</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="1" t="n">
         <v>1973.99530202672</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="1" t="n">
         <v>2009.78278694035</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="1" t="n">
         <v>2014.96407527685</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="1" t="n">
         <v>2038.83376112401</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="1" t="n">
         <v>2103.91639448452</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="1" t="n">
         <v>2101.33856574313</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="1" t="n">
         <v>2133.22442727852</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="1" t="n">
         <v>1999.42597645039</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="1" t="n">
         <v>2082.58165201404</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="1" t="n">
         <v>2139.35311082995</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="1" t="n">
         <v>2165.06900294969</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="1" t="n">
         <v>2102.67434522551</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="1" t="n">
         <v>2101.55301735453</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="1" t="n">
         <v>2099.14965670134</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="1" t="n">
         <v>2098.58781746825</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="1" t="n">
         <v>2149.93547351322</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="1" t="n">
         <v>2224.98410918474</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="1" t="n">
         <v>2208.39419239722</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="1" t="n">
         <v>2126.26127132716</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="1" t="n">
         <v>2234.21623164833</v>
       </c>
     </row>
@@ -794,103 +802,103 @@
       <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1" t="n">
         <v>6556.54786533433</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1" t="n">
         <v>6486.57696931733</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="1" t="n">
         <v>6600.14107286754</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="1" t="n">
         <v>6705.56423657482</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="1" t="n">
         <v>6814.88718771597</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="1" t="n">
         <v>6887.42616529423</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="1" t="n">
         <v>7092.42961014584</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="1" t="n">
         <v>7144.09355798916</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="1" t="n">
         <v>7190.71006116931</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="1" t="n">
         <v>7240.58218913827</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="1" t="n">
         <v>7446.25724255253</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="1" t="n">
         <v>7321.83051054318</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="1" t="n">
         <v>7374.84244869276</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="1" t="n">
         <v>7427.0227691196</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="1" t="n">
         <v>7557.46092200753</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="1" t="n">
         <v>7560.79039209013</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="1" t="n">
         <v>7482.89768891052</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="1" t="n">
         <v>7591.52664642179</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="1" t="n">
         <v>7366.21390565407</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="1" t="n">
         <v>6917.52485227373</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="1" t="n">
         <v>7124.74177953974</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" s="1" t="n">
         <v>6980.1525518942</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="1" t="n">
         <v>6744.05911530515</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="1" t="n">
         <v>6916.57438578867</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="1" t="n">
         <v>6967.32862060614</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="1" t="n">
         <v>6828.35575738545</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="1" t="n">
         <v>6647.58634758088</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="1" t="n">
         <v>6640.53970935148</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="1" t="n">
         <v>6829.99060951419</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="1" t="n">
         <v>6692.36158253522</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="1" t="n">
         <v>6112.11625365622</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="1" t="n">
         <v>6428.07017694525</v>
       </c>
     </row>
